--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_6_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_6_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1490705.602164466</v>
+        <v>1452668.98598319</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>421727.353777918</v>
+        <v>421727.3537779183</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7956703.636481808</v>
+        <v>7956703.636481815</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8448425.905023262</v>
+        <v>8448425.905023264</v>
       </c>
     </row>
     <row r="11">
@@ -664,61 +664,61 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>94.97556101020614</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14.85476540383092</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>205.224307868124</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6592771345624158</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>222.9651171964204</v>
+      </c>
+      <c r="U2" t="n">
+        <v>251.4777635765444</v>
+      </c>
+      <c r="V2" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="F2" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="G2" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.72873530486501</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>35.90507490100101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>164.138716923775</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>11.02353771150029</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>145.3493044047354</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>274.2838073416025</v>
       </c>
       <c r="X5" t="n">
-        <v>219.4405486221116</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>40.3806666778891</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>24.74480419430704</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,67 +1135,67 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>234.2953140259425</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>7.293863480540836</v>
       </c>
       <c r="G8" t="n">
+        <v>14.85476540383092</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.6592771345624158</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>141.8508227008771</v>
+      </c>
+      <c r="S8" t="n">
+        <v>205.8649517235392</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>251.4777635765444</v>
+      </c>
+      <c r="V8" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="H8" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>168.1553481697935</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>44.75502769643857</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>58.72873530486501</v>
       </c>
     </row>
     <row r="10">
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>11.02353771150029</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="G10" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>49.7823671951049</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>69.6844829998187</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>383.1180357552875</v>
@@ -1384,13 +1384,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H12" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I12" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S12" t="n">
-        <v>64.66640004843207</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T12" t="n">
         <v>195.6974464808964</v>
@@ -1572,28 +1572,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.696742040683396</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>50.42797305210065</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>49.7823671951049</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>407.2938634805408</v>
@@ -1624,10 +1624,10 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H14" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>157.2246747536534</v>
+        <v>92.21844548409648</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1700,13 +1700,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3570519053243</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>22.34031300679495</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>53.33473024000174</v>
+        <v>43.43543629068141</v>
       </c>
       <c r="S15" t="n">
         <v>156.5880156630749</v>
@@ -1773,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>112.2252571302024</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3311041893321</v>
+        <v>125.9798047813714</v>
       </c>
       <c r="H16" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>136.9633875020681</v>
       </c>
       <c r="J16" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>49.7823671951049</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>383.1180357552875</v>
@@ -1861,7 +1861,7 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H17" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>157.2246747536534</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>163.7351310843366</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>94.12953483606209</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>75.67504324679705</v>
       </c>
       <c r="I18" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>156.5880156630749</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2046,25 +2046,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>43.31613505611891</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>90.90079033274554</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>89.83130367071986</v>
       </c>
       <c r="T20" t="n">
-        <v>79.64322410782276</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U20" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.6870717512358</v>
@@ -2171,16 +2171,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>94.12953483606209</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I21" t="n">
-        <v>63.56783007605712</v>
+        <v>61.81771630496191</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
         <v>167.3365529312023</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>56.3734392368837</v>
       </c>
       <c r="H22" t="n">
-        <v>47.98473017938051</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2283,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>204.9161460058123</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>316.4849281496555</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H24" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>53.33473024000174</v>
       </c>
       <c r="S24" t="n">
-        <v>74.89949988448734</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T24" t="n">
         <v>195.6974464808964</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>3.157795208937534</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>123.8960088696167</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I26" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S26" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>185.2603433225598</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>183.2975870434018</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H27" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I27" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>59.20528375383371</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
         <v>203.671151418586</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>50.42797305210065</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>83.58419887257701</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V28" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>383.1180357552875</v>
@@ -2806,10 +2806,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H29" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>35.84040146281401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>114.7248662930972</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -2873,7 +2873,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>171.025583927401</v>
+        <v>25.76923807275637</v>
       </c>
       <c r="D30" t="n">
         <v>146.1124235746456</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S30" t="n">
         <v>156.5880156630749</v>
@@ -2927,7 +2927,7 @@
         <v>195.6974464808964</v>
       </c>
       <c r="U30" t="n">
-        <v>132.6917352486297</v>
+        <v>224.6133508632724</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -2952,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
         <v>167.3311041893321</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.10601891920935</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>140.9000762328046</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>51.08315982662424</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
         <v>407.2938634805408</v>
@@ -3046,10 +3046,10 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H32" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S32" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>75.60036958065702</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="33">
@@ -3122,10 +3122,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>53.66853612673689</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H33" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3231,22 +3231,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>77.66481953889517</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>212.9373715095812</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,13 +3268,13 @@
         <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>68.84875225219827</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I35" t="n">
         <v>157.2246747536534</v>
@@ -3322,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>158.8844174642003</v>
       </c>
       <c r="W35" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.6870717512358</v>
@@ -3365,7 +3365,7 @@
         <v>104.0288287853823</v>
       </c>
       <c r="I36" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>156.5880156630749</v>
@@ -3401,13 +3401,13 @@
         <v>195.6974464808964</v>
       </c>
       <c r="U36" t="n">
-        <v>79.35700500862784</v>
+        <v>224.6133508632724</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>249.98934675</v>
+        <v>221.6355612114147</v>
       </c>
       <c r="X36" t="n">
         <v>204.4616296084783</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>10.51636646124563</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>239.9275095683281</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>356.6047327545984</v>
@@ -3517,13 +3517,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H38" t="n">
-        <v>18.38168171354478</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>128.981732669668</v>
       </c>
       <c r="Y38" t="n">
         <v>386.6870717512358</v>
@@ -3584,7 +3584,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>25.76923807275637</v>
       </c>
       <c r="D39" t="n">
         <v>146.1124235746456</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S39" t="n">
         <v>156.5880156630749</v>
@@ -3638,7 +3638,7 @@
         <v>195.6974464808964</v>
       </c>
       <c r="U39" t="n">
-        <v>132.6917352486297</v>
+        <v>224.6133508632724</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.3094207068133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>156.9814653896995</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>361.5518218328125</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>413.6097194764729</v>
+        <v>161.3494900906276</v>
       </c>
       <c r="H41" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>370.8615991311694</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>83.68360983175734</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
         <v>171.025583927401</v>
@@ -3836,7 +3836,7 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H42" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3906,22 +3906,22 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>6.76190710554451</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>110.574336931324</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V43" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>187.8627930913166</v>
       </c>
       <c r="H44" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>72.5801332684638</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
         <v>386.6870717512358</v>
@@ -4073,10 +4073,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H45" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I45" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>104.7330008953557</v>
+        <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
         <v>204.4616296084783</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>37.81258203864194</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T46" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>242.5867122673066</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1097.13522936641</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="C2" t="n">
-        <v>1097.13522936641</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="D2" t="n">
-        <v>853.1057571376389</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="E2" t="n">
-        <v>576.0514062875353</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="F2" t="n">
-        <v>298.9970554374318</v>
+        <v>244.9107353009821</v>
       </c>
       <c r="G2" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="H2" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J2" t="n">
         <v>21.9427045873282</v>
@@ -4360,22 +4360,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T2" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U2" t="n">
-        <v>1097.13522936641</v>
+        <v>617.899996262405</v>
       </c>
       <c r="V2" t="n">
-        <v>1097.13522936641</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="W2" t="n">
-        <v>1097.13522936641</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="X2" t="n">
-        <v>1097.13522936641</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="Y2" t="n">
-        <v>1097.13522936641</v>
+        <v>340.8456454123015</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>893.8249258195958</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="C3" t="n">
-        <v>721.0718107414129</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="D3" t="n">
-        <v>573.4835041003568</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="E3" t="n">
-        <v>415.8739751032115</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="F3" t="n">
-        <v>270.9181851198283</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="G3" t="n">
-        <v>133.521003094533</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="H3" t="n">
-        <v>21.9427045873282</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="I3" t="n">
         <v>21.9427045873282</v>
@@ -4412,13 +4412,13 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K3" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L3" t="n">
-        <v>277.4136198757311</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M3" t="n">
-        <v>277.9660032696079</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N3" t="n">
         <v>549.5069725377944</v>
@@ -4433,28 +4433,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S3" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T3" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U3" t="n">
-        <v>1097.13522936641</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V3" t="n">
-        <v>1097.13522936641</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W3" t="n">
-        <v>1097.13522936641</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="X3" t="n">
-        <v>1097.13522936641</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="Y3" t="n">
-        <v>1060.867476941156</v>
+        <v>81.2646594407272</v>
       </c>
     </row>
     <row r="4">
@@ -4467,28 +4467,28 @@
         <v>202.6630345283467</v>
       </c>
       <c r="C4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="D4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="E4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="F4" t="n">
-        <v>191.5281479510737</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="G4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K4" t="n">
         <v>21.9427045873282</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44.31505699578452</v>
+        <v>191.7984726920449</v>
       </c>
       <c r="C5" t="n">
-        <v>44.31505699578452</v>
+        <v>191.7984726920449</v>
       </c>
       <c r="D5" t="n">
-        <v>44.31505699578452</v>
+        <v>191.7984726920449</v>
       </c>
       <c r="E5" t="n">
-        <v>44.31505699578452</v>
+        <v>191.7984726920449</v>
       </c>
       <c r="F5" t="n">
-        <v>36.94751812655136</v>
+        <v>184.4309338228118</v>
       </c>
       <c r="G5" t="n">
-        <v>21.9427045873282</v>
+        <v>169.4261202835886</v>
       </c>
       <c r="H5" t="n">
-        <v>21.9427045873282</v>
+        <v>169.4261202835886</v>
       </c>
       <c r="I5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J5" t="n">
         <v>21.9427045873282</v>
@@ -4582,7 +4582,7 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O5" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P5" t="n">
         <v>1093.116282134284</v>
@@ -4591,28 +4591,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S5" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T5" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U5" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="V5" t="n">
-        <v>820.0808785163064</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="W5" t="n">
-        <v>543.0265276662028</v>
+        <v>191.7984726920449</v>
       </c>
       <c r="X5" t="n">
-        <v>321.3694078458881</v>
+        <v>191.7984726920449</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.31505699578452</v>
+        <v>191.7984726920449</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>378.5078487234679</v>
+        <v>517.8373438740774</v>
       </c>
       <c r="C6" t="n">
-        <v>378.5078487234679</v>
+        <v>345.0842287958946</v>
       </c>
       <c r="D6" t="n">
-        <v>378.5078487234679</v>
+        <v>345.0842287958946</v>
       </c>
       <c r="E6" t="n">
-        <v>220.8983197263226</v>
+        <v>345.0842287958946</v>
       </c>
       <c r="F6" t="n">
-        <v>220.8983197263226</v>
+        <v>200.1284388125115</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8983197263226</v>
+        <v>62.73125678721618</v>
       </c>
       <c r="H6" t="n">
-        <v>109.3200212191178</v>
+        <v>62.73125678721618</v>
       </c>
       <c r="I6" t="n">
         <v>21.9427045873282</v>
@@ -4655,43 +4655,43 @@
         <v>416.655578933882</v>
       </c>
       <c r="M6" t="n">
-        <v>688.1965482020685</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N6" t="n">
-        <v>959.7375174702549</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O6" t="n">
-        <v>1097.13522936641</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P6" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q6" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R6" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S6" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T6" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U6" t="n">
-        <v>403.5026004348891</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V6" t="n">
-        <v>378.5078487234679</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W6" t="n">
-        <v>378.5078487234679</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X6" t="n">
-        <v>378.5078487234679</v>
+        <v>890.6083307719874</v>
       </c>
       <c r="Y6" t="n">
-        <v>378.5078487234679</v>
+        <v>684.8798949956379</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="C7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="D7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="E7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="F7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="G7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="H7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="I7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="J7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K7" t="n">
         <v>21.9427045873282</v>
@@ -4746,31 +4746,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="R7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="S7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="T7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="U7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="V7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="W7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="X7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1097.13522936641</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="C8" t="n">
-        <v>860.473296006872</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="D8" t="n">
-        <v>860.473296006872</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="E8" t="n">
-        <v>583.4189451567685</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="F8" t="n">
-        <v>576.0514062875353</v>
+        <v>37.61345462610935</v>
       </c>
       <c r="G8" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H8" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I8" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J8" t="n">
         <v>21.9427045873282</v>
@@ -4828,28 +4828,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U8" t="n">
-        <v>1097.13522936641</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="V8" t="n">
-        <v>1097.13522936641</v>
+        <v>214.8348805355379</v>
       </c>
       <c r="W8" t="n">
-        <v>1097.13522936641</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="X8" t="n">
-        <v>1097.13522936641</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="Y8" t="n">
-        <v>1097.13522936641</v>
+        <v>44.98099349534252</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C9" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D9" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E9" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F9" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H9" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I9" t="n">
         <v>21.9427045873282</v>
@@ -4889,10 +4889,10 @@
         <v>168.577974491964</v>
       </c>
       <c r="L9" t="n">
-        <v>359.1441712859057</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M9" t="n">
-        <v>359.1441712859057</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N9" t="n">
         <v>630.6851405540922</v>
@@ -4910,25 +4910,25 @@
         <v>1001.483734658237</v>
       </c>
       <c r="S9" t="n">
-        <v>830.8154377838487</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T9" t="n">
-        <v>630.4290419169106</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U9" t="n">
-        <v>403.5026004348891</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V9" t="n">
-        <v>358.2955017516178</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W9" t="n">
-        <v>358.2955017516178</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="X9" t="n">
-        <v>358.2955017516178</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="Y9" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="10">
@@ -4950,19 +4950,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="F10" t="n">
-        <v>191.5281479510737</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="G10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="H10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="I10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="J10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2485.286380156665</v>
+        <v>919.4956564713648</v>
       </c>
       <c r="C11" t="n">
-        <v>2114.594364319349</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="D11" t="n">
-        <v>1754.387563557128</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="E11" t="n">
-        <v>1367.399648652797</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F11" t="n">
-        <v>955.9917057431599</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G11" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H11" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I11" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J11" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370291</v>
       </c>
       <c r="K11" t="n">
-        <v>432.7629010724813</v>
+        <v>432.7629010724806</v>
       </c>
       <c r="L11" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535817</v>
       </c>
       <c r="M11" t="n">
-        <v>1286.636576300462</v>
+        <v>1286.636576300461</v>
       </c>
       <c r="N11" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O11" t="n">
         <v>2113.071138623965</v>
@@ -5065,28 +5065,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R11" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S11" t="n">
-        <v>2535.571599545659</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T11" t="n">
-        <v>2535.571599545659</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U11" t="n">
-        <v>2535.571599545659</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.571599545659</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="W11" t="n">
-        <v>2535.571599545659</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="X11" t="n">
-        <v>2535.571599545659</v>
+        <v>1697.680991564931</v>
       </c>
       <c r="Y11" t="n">
-        <v>2535.571599545659</v>
+        <v>1307.087989796006</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C12" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D12" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E12" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F12" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G12" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I12" t="n">
         <v>50.71143199091319</v>
@@ -5144,28 +5144,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R12" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S12" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T12" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U12" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V12" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W12" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X12" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y12" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="13">
@@ -5220,25 +5220,25 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q13" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R13" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S13" t="n">
-        <v>281.6639118382623</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T13" t="n">
-        <v>53.43541385018935</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U13" t="n">
-        <v>50.71143199091319</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V13" t="n">
-        <v>50.71143199091319</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="W13" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="X13" t="n">
         <v>50.71143199091319</v>
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2485.286380156665</v>
+        <v>1333.263716026983</v>
       </c>
       <c r="C14" t="n">
-        <v>2114.594364319349</v>
+        <v>1333.263716026983</v>
       </c>
       <c r="D14" t="n">
-        <v>1754.387563557128</v>
+        <v>973.056915264762</v>
       </c>
       <c r="E14" t="n">
-        <v>1367.399648652797</v>
+        <v>973.056915264762</v>
       </c>
       <c r="F14" t="n">
-        <v>955.9917057431599</v>
+        <v>561.6489723551247</v>
       </c>
       <c r="G14" t="n">
-        <v>538.2041103123792</v>
+        <v>143.861376924344</v>
       </c>
       <c r="H14" t="n">
-        <v>209.5242347723812</v>
+        <v>143.861376924344</v>
       </c>
       <c r="I14" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J14" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K14" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L14" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535822</v>
       </c>
       <c r="M14" t="n">
         <v>1286.636576300462</v>
@@ -5308,22 +5308,22 @@
         <v>2535.571599545659</v>
       </c>
       <c r="T14" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="U14" t="n">
-        <v>2535.571599545659</v>
+        <v>2061.942217170138</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.571599545659</v>
+        <v>2061.942217170138</v>
       </c>
       <c r="W14" t="n">
-        <v>2535.571599545659</v>
+        <v>1707.871391917053</v>
       </c>
       <c r="X14" t="n">
-        <v>2535.571599545659</v>
+        <v>1333.263716026983</v>
       </c>
       <c r="Y14" t="n">
-        <v>2535.571599545659</v>
+        <v>1333.263716026983</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>832.9084402786798</v>
+        <v>842.907727096175</v>
       </c>
       <c r="C15" t="n">
-        <v>660.1553252004969</v>
+        <v>670.1546120179921</v>
       </c>
       <c r="D15" t="n">
-        <v>512.5670185594408</v>
+        <v>522.566305376936</v>
       </c>
       <c r="E15" t="n">
-        <v>354.9574895622956</v>
+        <v>364.9567763797908</v>
       </c>
       <c r="F15" t="n">
-        <v>210.0016995789124</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="G15" t="n">
-        <v>73.27740472504951</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H15" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I15" t="n">
         <v>50.71143199091319</v>
@@ -5381,28 +5381,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R15" t="n">
-        <v>2481.698134656769</v>
+        <v>2491.697421474264</v>
       </c>
       <c r="S15" t="n">
-        <v>2323.528421865784</v>
+        <v>2333.527708683279</v>
       </c>
       <c r="T15" t="n">
-        <v>2125.854233501242</v>
+        <v>2135.853520318738</v>
       </c>
       <c r="U15" t="n">
-        <v>1898.972060912078</v>
+        <v>1908.971347729573</v>
       </c>
       <c r="V15" t="n">
-        <v>1664.720817437679</v>
+        <v>1674.720104255174</v>
       </c>
       <c r="W15" t="n">
-        <v>1412.206325771012</v>
+        <v>1422.205612588507</v>
       </c>
       <c r="X15" t="n">
-        <v>1205.67942717659</v>
+        <v>1215.678713994085</v>
       </c>
       <c r="Y15" t="n">
-        <v>999.9509914002402</v>
+        <v>1009.950278217735</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>679.5420961591335</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="C16" t="n">
-        <v>679.5420961591335</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="D16" t="n">
-        <v>679.5420961591335</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="E16" t="n">
-        <v>679.5420961591335</v>
+        <v>316.3106161155995</v>
       </c>
       <c r="F16" t="n">
-        <v>566.1832505730705</v>
+        <v>316.3106161155995</v>
       </c>
       <c r="G16" t="n">
-        <v>397.1619332101088</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="H16" t="n">
-        <v>238.9107867959494</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="I16" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J16" t="n">
         <v>50.71143199091319</v>
@@ -5463,25 +5463,25 @@
         <v>679.5420961591335</v>
       </c>
       <c r="S16" t="n">
-        <v>679.5420961591335</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="T16" t="n">
-        <v>679.5420961591335</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="U16" t="n">
-        <v>679.5420961591335</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="V16" t="n">
-        <v>679.5420961591335</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="W16" t="n">
-        <v>679.5420961591335</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="X16" t="n">
-        <v>679.5420961591335</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="Y16" t="n">
-        <v>679.5420961591335</v>
+        <v>464.7698324521643</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2485.286380156665</v>
+        <v>1796.399703854446</v>
       </c>
       <c r="C17" t="n">
-        <v>2114.594364319349</v>
+        <v>1425.70768801713</v>
       </c>
       <c r="D17" t="n">
-        <v>1754.387563557128</v>
+        <v>1425.70768801713</v>
       </c>
       <c r="E17" t="n">
-        <v>1367.399648652797</v>
+        <v>1038.719773112799</v>
       </c>
       <c r="F17" t="n">
-        <v>955.9917057431599</v>
+        <v>627.3118302031619</v>
       </c>
       <c r="G17" t="n">
-        <v>538.2041103123792</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="H17" t="n">
         <v>209.5242347723812</v>
@@ -5515,19 +5515,19 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J17" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K17" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L17" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M17" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N17" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O17" t="n">
         <v>2113.071138623965</v>
@@ -5545,22 +5545,22 @@
         <v>2535.571599545659</v>
       </c>
       <c r="T17" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="U17" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="V17" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="W17" t="n">
-        <v>2535.571599545659</v>
+        <v>1961.788725151755</v>
       </c>
       <c r="X17" t="n">
-        <v>2535.571599545659</v>
+        <v>1961.788725151755</v>
       </c>
       <c r="Y17" t="n">
-        <v>2535.571599545659</v>
+        <v>1796.399703854446</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>832.9084402786798</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C18" t="n">
-        <v>660.1553252004969</v>
+        <v>714.0287900893879</v>
       </c>
       <c r="D18" t="n">
-        <v>512.5670185594408</v>
+        <v>566.4404834483319</v>
       </c>
       <c r="E18" t="n">
-        <v>354.9574895622956</v>
+        <v>408.8309544511866</v>
       </c>
       <c r="F18" t="n">
-        <v>210.0016995789124</v>
+        <v>263.8751644678034</v>
       </c>
       <c r="G18" t="n">
-        <v>114.9213613606679</v>
+        <v>127.1508696139405</v>
       </c>
       <c r="H18" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I18" t="n">
         <v>50.71143199091319</v>
@@ -5606,7 +5606,7 @@
         <v>1266.817695663801</v>
       </c>
       <c r="N18" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O18" t="n">
         <v>2045.703836711752</v>
@@ -5618,28 +5618,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R18" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S18" t="n">
-        <v>2323.528421865784</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T18" t="n">
-        <v>2125.854233501242</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U18" t="n">
-        <v>1898.972060912078</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V18" t="n">
-        <v>1664.720817437679</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W18" t="n">
-        <v>1412.206325771012</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X18" t="n">
-        <v>1205.67942717659</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y18" t="n">
-        <v>999.9509914002402</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.71143199091319</v>
+        <v>346.8060234888967</v>
       </c>
       <c r="C19" t="n">
-        <v>50.71143199091319</v>
+        <v>346.8060234888967</v>
       </c>
       <c r="D19" t="n">
-        <v>50.71143199091319</v>
+        <v>346.8060234888967</v>
       </c>
       <c r="E19" t="n">
-        <v>50.71143199091319</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="F19" t="n">
         <v>50.71143199091319</v>
@@ -5694,31 +5694,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q19" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R19" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S19" t="n">
-        <v>431.4413288795672</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T19" t="n">
-        <v>431.4413288795672</v>
+        <v>635.788424385276</v>
       </c>
       <c r="U19" t="n">
-        <v>142.5304121249996</v>
+        <v>635.788424385276</v>
       </c>
       <c r="V19" t="n">
-        <v>50.71143199091319</v>
+        <v>635.788424385276</v>
       </c>
       <c r="W19" t="n">
-        <v>50.71143199091319</v>
+        <v>346.8060234888967</v>
       </c>
       <c r="X19" t="n">
-        <v>50.71143199091319</v>
+        <v>346.8060234888967</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.71143199091319</v>
+        <v>346.8060234888967</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>750.083323368227</v>
+        <v>1193.018191500087</v>
       </c>
       <c r="C20" t="n">
-        <v>379.3913075309111</v>
+        <v>822.326175662771</v>
       </c>
       <c r="D20" t="n">
-        <v>379.3913075309111</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="E20" t="n">
-        <v>379.3913075309111</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F20" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G20" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H20" t="n">
         <v>50.71143199091319</v>
@@ -5779,25 +5779,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S20" t="n">
-        <v>2535.571599545659</v>
+        <v>2444.832908969175</v>
       </c>
       <c r="T20" t="n">
-        <v>2455.123898426647</v>
+        <v>2225.120859828356</v>
       </c>
       <c r="U20" t="n">
-        <v>2201.206565191944</v>
+        <v>1971.203526593653</v>
       </c>
       <c r="V20" t="n">
-        <v>1869.354826280308</v>
+        <v>1971.203526593653</v>
       </c>
       <c r="W20" t="n">
-        <v>1515.284001027222</v>
+        <v>1971.203526593653</v>
       </c>
       <c r="X20" t="n">
-        <v>1140.676325137152</v>
+        <v>1971.203526593653</v>
       </c>
       <c r="Y20" t="n">
-        <v>750.083323368227</v>
+        <v>1580.610524824728</v>
       </c>
     </row>
     <row r="21">
@@ -5819,13 +5819,13 @@
         <v>354.9574895622956</v>
       </c>
       <c r="F21" t="n">
-        <v>210.0016995789124</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="G21" t="n">
-        <v>114.9213613606679</v>
+        <v>218.2331947084326</v>
       </c>
       <c r="H21" t="n">
-        <v>114.9213613606679</v>
+        <v>113.1535696726929</v>
       </c>
       <c r="I21" t="n">
         <v>50.71143199091319</v>
@@ -5834,19 +5834,19 @@
         <v>120.4127199202217</v>
       </c>
       <c r="K21" t="n">
-        <v>366.1489360814929</v>
+        <v>181.9669871305373</v>
       </c>
       <c r="L21" t="n">
-        <v>757.4212114061545</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M21" t="n">
-        <v>1266.817695663801</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N21" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O21" t="n">
-        <v>2229.885785662707</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P21" t="n">
         <v>2370.209254145837</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>268.2076775571585</v>
+        <v>276.681121049586</v>
       </c>
       <c r="C22" t="n">
-        <v>99.18085641452987</v>
+        <v>107.6542999069573</v>
       </c>
       <c r="D22" t="n">
-        <v>99.18085641452987</v>
+        <v>107.6542999069573</v>
       </c>
       <c r="E22" t="n">
-        <v>99.18085641452987</v>
+        <v>107.6542999069573</v>
       </c>
       <c r="F22" t="n">
-        <v>99.18085641452987</v>
+        <v>107.6542999069573</v>
       </c>
       <c r="G22" t="n">
-        <v>99.18085641452987</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H22" t="n">
         <v>50.71143199091319</v>
@@ -5931,31 +5931,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q22" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R22" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S22" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T22" t="n">
-        <v>268.2076775571585</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U22" t="n">
-        <v>268.2076775571585</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V22" t="n">
-        <v>268.2076775571585</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W22" t="n">
-        <v>268.2076775571585</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="X22" t="n">
-        <v>268.2076775571585</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Y22" t="n">
-        <v>268.2076775571585</v>
+        <v>458.5838397270444</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1199.588715937044</v>
+        <v>1416.300096633579</v>
       </c>
       <c r="C23" t="n">
-        <v>1199.588715937044</v>
+        <v>1209.314090567102</v>
       </c>
       <c r="D23" t="n">
-        <v>1199.588715937044</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="E23" t="n">
-        <v>1199.588715937044</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F23" t="n">
-        <v>788.1807730274065</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G23" t="n">
-        <v>370.3931775966258</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H23" t="n">
         <v>50.71143199091319</v>
@@ -6001,7 +6001,7 @@
         <v>1286.636576300462</v>
       </c>
       <c r="N23" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O23" t="n">
         <v>2113.071138623965</v>
@@ -6019,22 +6019,22 @@
         <v>2535.571599545659</v>
       </c>
       <c r="T23" t="n">
-        <v>2315.859550404841</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U23" t="n">
-        <v>2315.859550404841</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V23" t="n">
-        <v>2315.859550404841</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="W23" t="n">
-        <v>1961.788725151755</v>
+        <v>2181.500774292574</v>
       </c>
       <c r="X23" t="n">
-        <v>1587.181049261685</v>
+        <v>1806.893098402504</v>
       </c>
       <c r="Y23" t="n">
-        <v>1587.181049261685</v>
+        <v>1416.300096633579</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>915.4220925802833</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C24" t="n">
-        <v>742.6689775021005</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D24" t="n">
-        <v>595.0806708610443</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E24" t="n">
-        <v>437.471141863899</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F24" t="n">
-        <v>292.5153518805158</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G24" t="n">
-        <v>155.7910570266529</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H24" t="n">
         <v>50.71143199091319</v>
@@ -6095,25 +6095,25 @@
         <v>2481.698134656769</v>
       </c>
       <c r="S24" t="n">
-        <v>2406.042074167387</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T24" t="n">
-        <v>2208.367885802846</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U24" t="n">
-        <v>1981.485713213681</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V24" t="n">
-        <v>1747.234469739282</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W24" t="n">
-        <v>1494.719978072616</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X24" t="n">
-        <v>1288.193079478193</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y24" t="n">
-        <v>1082.464643701844</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>390.5596952627542</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C25" t="n">
-        <v>390.5596952627542</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D25" t="n">
-        <v>390.5596952627542</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E25" t="n">
-        <v>242.1004789261894</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F25" t="n">
-        <v>242.1004789261894</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1004789261894</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H25" t="n">
-        <v>238.9107867959494</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I25" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J25" t="n">
         <v>50.71143199091319</v>
@@ -6174,25 +6174,25 @@
         <v>679.5420961591335</v>
       </c>
       <c r="S25" t="n">
-        <v>679.5420961591335</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="T25" t="n">
-        <v>679.5420961591335</v>
+        <v>339.6223487454808</v>
       </c>
       <c r="U25" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="V25" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="W25" t="n">
-        <v>390.5596952627542</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X25" t="n">
-        <v>390.5596952627542</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y25" t="n">
-        <v>390.5596952627542</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1326.683721580476</v>
+        <v>1126.586023197463</v>
       </c>
       <c r="C26" t="n">
-        <v>955.9917057431599</v>
+        <v>1126.586023197463</v>
       </c>
       <c r="D26" t="n">
-        <v>955.9917057431599</v>
+        <v>766.3792224352419</v>
       </c>
       <c r="E26" t="n">
-        <v>955.9917057431599</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="F26" t="n">
-        <v>955.9917057431599</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="G26" t="n">
-        <v>538.2041103123792</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H26" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I26" t="n">
         <v>50.71143199091319</v>
@@ -6229,16 +6229,16 @@
         <v>154.6737472370294</v>
       </c>
       <c r="K26" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L26" t="n">
-        <v>829.7261648535825</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M26" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N26" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O26" t="n">
         <v>2113.071138623965</v>
@@ -6253,25 +6253,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S26" t="n">
-        <v>2292.00071659582</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T26" t="n">
-        <v>2104.869056674042</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="U26" t="n">
-        <v>2104.869056674042</v>
+        <v>1997.657665183802</v>
       </c>
       <c r="V26" t="n">
-        <v>2104.869056674042</v>
+        <v>1665.805926272166</v>
       </c>
       <c r="W26" t="n">
-        <v>2104.869056674042</v>
+        <v>1311.735101019081</v>
       </c>
       <c r="X26" t="n">
-        <v>2104.869056674042</v>
+        <v>1126.586023197463</v>
       </c>
       <c r="Y26" t="n">
-        <v>1714.276054905117</v>
+        <v>1126.586023197463</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C27" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D27" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E27" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F27" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G27" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H27" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I27" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J27" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K27" t="n">
-        <v>366.1489360814929</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L27" t="n">
-        <v>757.4212114061545</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M27" t="n">
-        <v>1266.817695663801</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N27" t="n">
-        <v>1620.913172155677</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O27" t="n">
-        <v>2045.703836711752</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P27" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q27" t="n">
         <v>2535.571599545659</v>
@@ -6347,10 +6347,10 @@
         <v>1412.206325771012</v>
       </c>
       <c r="X27" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y27" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="C28" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="D28" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="E28" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="F28" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="G28" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="H28" t="n">
         <v>50.71143199091319</v>
@@ -6411,25 +6411,25 @@
         <v>679.5420961591335</v>
       </c>
       <c r="S28" t="n">
-        <v>595.1136124494598</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T28" t="n">
-        <v>595.1136124494598</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U28" t="n">
-        <v>306.2026956948922</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V28" t="n">
-        <v>50.71143199091319</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="W28" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="X28" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="Y28" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1537.9939661071</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="C29" t="n">
-        <v>1537.9939661071</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="D29" t="n">
-        <v>1177.787165344879</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="E29" t="n">
-        <v>790.7992504405483</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F29" t="n">
-        <v>379.3913075309111</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G29" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H29" t="n">
         <v>50.71143199091319</v>
@@ -6463,13 +6463,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J29" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K29" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L29" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M29" t="n">
         <v>1286.636576300462</v>
@@ -6490,25 +6490,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S29" t="n">
-        <v>2499.369173825645</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T29" t="n">
-        <v>2279.657124684827</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U29" t="n">
-        <v>2279.657124684827</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V29" t="n">
-        <v>2279.657124684827</v>
+        <v>2419.687896219299</v>
       </c>
       <c r="W29" t="n">
-        <v>1925.586299431741</v>
+        <v>2419.687896219299</v>
       </c>
       <c r="X29" t="n">
-        <v>1925.586299431741</v>
+        <v>2045.080220329229</v>
       </c>
       <c r="Y29" t="n">
-        <v>1925.586299431741</v>
+        <v>1654.487218560304</v>
       </c>
     </row>
     <row r="30">
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C30" t="n">
         <v>806.8789068718552</v>
@@ -6566,28 +6566,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R30" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S30" t="n">
-        <v>2377.401886754675</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T30" t="n">
-        <v>2179.727698390133</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U30" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V30" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W30" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X30" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y30" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>537.2187868330683</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="C31" t="n">
-        <v>368.1919656904397</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="D31" t="n">
-        <v>368.1919656904397</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="E31" t="n">
-        <v>219.7327493538749</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="F31" t="n">
-        <v>219.7327493538749</v>
+        <v>303.6782230096419</v>
       </c>
       <c r="G31" t="n">
-        <v>50.71143199091319</v>
+        <v>134.6569056466802</v>
       </c>
       <c r="H31" t="n">
         <v>50.71143199091319</v>
@@ -6648,25 +6648,25 @@
         <v>679.5420961591335</v>
       </c>
       <c r="S31" t="n">
-        <v>537.2187868330683</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T31" t="n">
-        <v>537.2187868330683</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="U31" t="n">
-        <v>537.2187868330683</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="V31" t="n">
-        <v>537.2187868330683</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="W31" t="n">
-        <v>537.2187868330683</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="X31" t="n">
-        <v>537.2187868330683</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="Y31" t="n">
-        <v>537.2187868330683</v>
+        <v>451.3135981710606</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1367.399648652797</v>
+        <v>1318.494036575687</v>
       </c>
       <c r="C32" t="n">
-        <v>1367.399648652797</v>
+        <v>1318.494036575687</v>
       </c>
       <c r="D32" t="n">
-        <v>1367.399648652797</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="E32" t="n">
-        <v>1367.399648652797</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F32" t="n">
-        <v>955.9917057431599</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G32" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H32" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I32" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J32" t="n">
-        <v>154.6737472370293</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K32" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L32" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M32" t="n">
         <v>1286.636576300462</v>
@@ -6727,25 +6727,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S32" t="n">
-        <v>2292.00071659582</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T32" t="n">
-        <v>2072.288667455001</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U32" t="n">
-        <v>1818.371334220299</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V32" t="n">
-        <v>1818.371334220299</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="W32" t="n">
-        <v>1818.371334220299</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="X32" t="n">
-        <v>1443.763658330229</v>
+        <v>2096.679371669253</v>
       </c>
       <c r="Y32" t="n">
-        <v>1367.399648652797</v>
+        <v>1706.086369900328</v>
       </c>
     </row>
     <row r="33">
@@ -6770,7 +6770,7 @@
         <v>210.0016995789124</v>
       </c>
       <c r="G33" t="n">
-        <v>155.7910570266529</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H33" t="n">
         <v>50.71143199091319</v>
@@ -6779,25 +6779,25 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J33" t="n">
-        <v>101.5931163690881</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K33" t="n">
-        <v>347.3293325303594</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L33" t="n">
-        <v>738.601607855021</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.998092112667</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N33" t="n">
-        <v>1786.275517555499</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O33" t="n">
-        <v>2211.066182111574</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P33" t="n">
-        <v>2535.571599545659</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q33" t="n">
         <v>2535.571599545659</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2202.835526875423</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="C34" t="n">
-        <v>2202.835526875423</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="D34" t="n">
-        <v>2202.835526875423</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="E34" t="n">
-        <v>2054.376310538858</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="F34" t="n">
-        <v>1906.740935377439</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="G34" t="n">
-        <v>1906.740935377439</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="H34" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I34" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J34" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K34" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L34" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M34" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N34" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O34" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P34" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q34" t="n">
-        <v>2502.243095973062</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R34" t="n">
-        <v>2423.793783307512</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S34" t="n">
-        <v>2423.793783307512</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T34" t="n">
-        <v>2423.793783307512</v>
+        <v>464.4538421090515</v>
       </c>
       <c r="U34" t="n">
-        <v>2423.793783307512</v>
+        <v>464.4538421090515</v>
       </c>
       <c r="V34" t="n">
-        <v>2423.793783307512</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="W34" t="n">
-        <v>2423.793783307512</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="X34" t="n">
-        <v>2423.793783307512</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="Y34" t="n">
-        <v>2202.835526875423</v>
+        <v>208.9625784050725</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>696.8560243973016</v>
+        <v>1342.979620647491</v>
       </c>
       <c r="C35" t="n">
-        <v>627.3118302031619</v>
+        <v>1342.979620647491</v>
       </c>
       <c r="D35" t="n">
-        <v>627.3118302031619</v>
+        <v>1342.979620647491</v>
       </c>
       <c r="E35" t="n">
-        <v>627.3118302031619</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="F35" t="n">
-        <v>627.3118302031619</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="G35" t="n">
-        <v>209.5242347723812</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="H35" t="n">
         <v>209.5242347723812</v>
@@ -6970,19 +6970,19 @@
         <v>2535.571599545659</v>
       </c>
       <c r="U35" t="n">
-        <v>2535.571599545659</v>
+        <v>2281.654266310957</v>
       </c>
       <c r="V35" t="n">
-        <v>2203.719860634023</v>
+        <v>2121.164955741057</v>
       </c>
       <c r="W35" t="n">
-        <v>1849.649035380938</v>
+        <v>2121.164955741057</v>
       </c>
       <c r="X35" t="n">
-        <v>1475.041359490868</v>
+        <v>2121.164955741057</v>
       </c>
       <c r="Y35" t="n">
-        <v>1084.448357721943</v>
+        <v>1730.571953972132</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>979.6320219500381</v>
+        <v>915.4220925802833</v>
       </c>
       <c r="C36" t="n">
-        <v>806.8789068718552</v>
+        <v>742.6689775021005</v>
       </c>
       <c r="D36" t="n">
-        <v>659.290600230799</v>
+        <v>595.0806708610443</v>
       </c>
       <c r="E36" t="n">
-        <v>501.6810712336537</v>
+        <v>437.471141863899</v>
       </c>
       <c r="F36" t="n">
-        <v>356.7252812502705</v>
+        <v>292.5153518805158</v>
       </c>
       <c r="G36" t="n">
-        <v>220.0009863964076</v>
+        <v>155.7910570266529</v>
       </c>
       <c r="H36" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I36" t="n">
         <v>50.71143199091319</v>
@@ -7019,10 +7019,10 @@
         <v>120.4127199202217</v>
       </c>
       <c r="K36" t="n">
-        <v>181.9669871305373</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L36" t="n">
-        <v>573.239262455199</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M36" t="n">
         <v>1082.635746712845</v>
@@ -7040,28 +7040,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R36" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S36" t="n">
-        <v>2323.528421865784</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T36" t="n">
-        <v>2125.854233501242</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U36" t="n">
-        <v>2045.695642583436</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V36" t="n">
-        <v>1811.444399109037</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W36" t="n">
-        <v>1558.92990744237</v>
+        <v>1494.719978072616</v>
       </c>
       <c r="X36" t="n">
-        <v>1352.403008847948</v>
+        <v>1288.193079478193</v>
       </c>
       <c r="Y36" t="n">
-        <v>1146.674573071598</v>
+        <v>1082.464643701844</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2086.384845125498</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="C37" t="n">
-        <v>2075.762252740401</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="D37" t="n">
-        <v>2075.762252740401</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="E37" t="n">
-        <v>2075.762252740401</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="F37" t="n">
-        <v>2075.762252740401</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="G37" t="n">
-        <v>1906.740935377439</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="H37" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I37" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J37" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K37" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L37" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M37" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N37" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O37" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P37" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q37" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R37" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S37" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T37" t="n">
-        <v>2307.343101557587</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="U37" t="n">
-        <v>2307.343101557587</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="V37" t="n">
-        <v>2307.343101557587</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="W37" t="n">
-        <v>2307.343101557587</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="X37" t="n">
-        <v>2307.343101557587</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="Y37" t="n">
-        <v>2086.384845125498</v>
+        <v>208.9625784050725</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1757.386264452093</v>
+        <v>1627.101685997883</v>
       </c>
       <c r="C38" t="n">
-        <v>1386.694248614777</v>
+        <v>1627.101685997883</v>
       </c>
       <c r="D38" t="n">
-        <v>1026.487447852556</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="E38" t="n">
-        <v>639.4995329482254</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F38" t="n">
-        <v>228.0915900385881</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G38" t="n">
-        <v>228.0915900385881</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H38" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I38" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J38" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K38" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L38" t="n">
         <v>829.7261648535823</v>
@@ -7186,7 +7186,7 @@
         <v>1286.636576300462</v>
       </c>
       <c r="N38" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O38" t="n">
         <v>2113.071138623965</v>
@@ -7216,10 +7216,10 @@
         <v>2535.571599545659</v>
       </c>
       <c r="X38" t="n">
-        <v>2535.571599545659</v>
+        <v>2405.287021091449</v>
       </c>
       <c r="Y38" t="n">
-        <v>2144.978597776734</v>
+        <v>2014.694019322524</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C39" t="n">
         <v>806.8789068718552</v>
@@ -7253,52 +7253,52 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J39" t="n">
-        <v>101.5931163690881</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K39" t="n">
-        <v>347.3293325303594</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L39" t="n">
-        <v>738.601607855021</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.998092112667</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N39" t="n">
-        <v>1786.275517555499</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O39" t="n">
-        <v>2211.066182111574</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P39" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q39" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R39" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S39" t="n">
-        <v>2377.401886754675</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T39" t="n">
-        <v>2179.727698390133</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U39" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V39" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W39" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X39" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y39" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50.71143199091319</v>
+        <v>162.1350892705226</v>
       </c>
       <c r="C40" t="n">
-        <v>50.71143199091319</v>
+        <v>162.1350892705226</v>
       </c>
       <c r="D40" t="n">
-        <v>50.71143199091319</v>
+        <v>162.1350892705226</v>
       </c>
       <c r="E40" t="n">
-        <v>50.71143199091319</v>
+        <v>162.1350892705226</v>
       </c>
       <c r="F40" t="n">
-        <v>50.71143199091319</v>
+        <v>162.1350892705226</v>
       </c>
       <c r="G40" t="n">
-        <v>50.71143199091319</v>
+        <v>162.1350892705226</v>
       </c>
       <c r="H40" t="n">
-        <v>50.71143199091319</v>
+        <v>162.1350892705226</v>
       </c>
       <c r="I40" t="n">
         <v>50.71143199091319</v>
@@ -7359,25 +7359,25 @@
         <v>679.5420961591335</v>
       </c>
       <c r="S40" t="n">
-        <v>464.7698324521643</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T40" t="n">
-        <v>306.2026956948922</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U40" t="n">
-        <v>306.2026956948922</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V40" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W40" t="n">
-        <v>50.71143199091319</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="X40" t="n">
-        <v>50.71143199091319</v>
+        <v>162.1350892705226</v>
       </c>
       <c r="Y40" t="n">
-        <v>50.71143199091319</v>
+        <v>162.1350892705226</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1162.382763398876</v>
+        <v>1382.778588562023</v>
       </c>
       <c r="C41" t="n">
-        <v>1162.382763398876</v>
+        <v>1012.086572724707</v>
       </c>
       <c r="D41" t="n">
-        <v>1162.382763398876</v>
+        <v>1012.086572724707</v>
       </c>
       <c r="E41" t="n">
-        <v>1162.382763398876</v>
+        <v>625.0986578203763</v>
       </c>
       <c r="F41" t="n">
-        <v>797.1789029616918</v>
+        <v>213.690714910739</v>
       </c>
       <c r="G41" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H41" t="n">
         <v>50.71143199091319</v>
@@ -7411,19 +7411,19 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J41" t="n">
-        <v>154.6737472370293</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K41" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L41" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M41" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N41" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O41" t="n">
         <v>2113.071138623965</v>
@@ -7444,19 +7444,19 @@
         <v>2535.571599545659</v>
       </c>
       <c r="U41" t="n">
-        <v>2281.654266310957</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V41" t="n">
-        <v>2281.654266310957</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="W41" t="n">
-        <v>1927.583441057871</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="X41" t="n">
-        <v>1552.975765167801</v>
+        <v>2160.963923655589</v>
       </c>
       <c r="Y41" t="n">
-        <v>1162.382763398876</v>
+        <v>1770.370921886664</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.4220925802833</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C42" t="n">
-        <v>742.6689775021005</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D42" t="n">
-        <v>595.0806708610443</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E42" t="n">
-        <v>437.471141863899</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F42" t="n">
-        <v>292.5153518805158</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G42" t="n">
-        <v>155.7910570266529</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H42" t="n">
         <v>50.71143199091319</v>
@@ -7499,7 +7499,7 @@
         <v>757.4212114061545</v>
       </c>
       <c r="M42" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N42" t="n">
         <v>1620.913172155677</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2280.080335841681</v>
+        <v>162.402681416493</v>
       </c>
       <c r="C43" t="n">
-        <v>2280.080335841681</v>
+        <v>162.402681416493</v>
       </c>
       <c r="D43" t="n">
-        <v>2280.080335841681</v>
+        <v>162.402681416493</v>
       </c>
       <c r="E43" t="n">
-        <v>2273.250126644161</v>
+        <v>162.402681416493</v>
       </c>
       <c r="F43" t="n">
-        <v>2125.614751482742</v>
+        <v>162.402681416493</v>
       </c>
       <c r="G43" t="n">
-        <v>1956.59343411978</v>
+        <v>162.402681416493</v>
       </c>
       <c r="H43" t="n">
-        <v>1956.59343411978</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I43" t="n">
-        <v>1956.59343411978</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K43" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L43" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M43" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N43" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O43" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P43" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q43" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R43" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S43" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T43" t="n">
-        <v>2535.571599545659</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="U43" t="n">
-        <v>2535.571599545659</v>
+        <v>162.402681416493</v>
       </c>
       <c r="V43" t="n">
-        <v>2280.080335841681</v>
+        <v>162.402681416493</v>
       </c>
       <c r="W43" t="n">
-        <v>2280.080335841681</v>
+        <v>162.402681416493</v>
       </c>
       <c r="X43" t="n">
-        <v>2280.080335841681</v>
+        <v>162.402681416493</v>
       </c>
       <c r="Y43" t="n">
-        <v>2280.080335841681</v>
+        <v>162.402681416493</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1110.290124130448</v>
+        <v>1382.778588562023</v>
       </c>
       <c r="C44" t="n">
-        <v>739.5981082931316</v>
+        <v>1012.086572724707</v>
       </c>
       <c r="D44" t="n">
-        <v>379.3913075309111</v>
+        <v>651.8797719624864</v>
       </c>
       <c r="E44" t="n">
-        <v>379.3913075309111</v>
+        <v>651.8797719624864</v>
       </c>
       <c r="F44" t="n">
-        <v>379.3913075309111</v>
+        <v>240.4718290528492</v>
       </c>
       <c r="G44" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H44" t="n">
         <v>50.71143199091319</v>
@@ -7648,13 +7648,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J44" t="n">
-        <v>154.6737472370293</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K44" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L44" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M44" t="n">
         <v>1286.636576300462</v>
@@ -7675,25 +7675,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S44" t="n">
-        <v>2462.258333617918</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T44" t="n">
-        <v>2242.5462844771</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U44" t="n">
-        <v>2242.5462844771</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V44" t="n">
-        <v>2242.5462844771</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="W44" t="n">
-        <v>1888.475459224014</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="X44" t="n">
-        <v>1888.475459224014</v>
+        <v>2160.963923655589</v>
       </c>
       <c r="Y44" t="n">
-        <v>1497.882457455089</v>
+        <v>1770.370921886664</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C45" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D45" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E45" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F45" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G45" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H45" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I45" t="n">
         <v>50.71143199091319</v>
@@ -7766,13 +7766,13 @@
         <v>1664.720817437679</v>
       </c>
       <c r="W45" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X45" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y45" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>236.5413344640914</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="C46" t="n">
-        <v>236.5413344640914</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="D46" t="n">
-        <v>236.5413344640914</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="E46" t="n">
-        <v>198.3468071523319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="F46" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="G46" t="n">
         <v>50.71143199091319</v>
@@ -7836,22 +7836,22 @@
         <v>464.7698324521643</v>
       </c>
       <c r="T46" t="n">
-        <v>236.5413344640914</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="U46" t="n">
-        <v>236.5413344640914</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="V46" t="n">
-        <v>236.5413344640914</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="W46" t="n">
-        <v>236.5413344640914</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="X46" t="n">
-        <v>236.5413344640914</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="Y46" t="n">
-        <v>236.5413344640914</v>
+        <v>219.7327493538749</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K3" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L3" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M3" t="n">
-        <v>139.1386460980858</v>
+        <v>272.7740099466066</v>
       </c>
       <c r="N3" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O3" t="n">
         <v>409.6168120477987</v>
@@ -8230,7 +8230,7 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O5" t="n">
-        <v>396.0321885132551</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P5" t="n">
         <v>334.6706564983419</v>
@@ -8303,19 +8303,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>412.8644904155703</v>
+        <v>272.7740099466066</v>
       </c>
       <c r="N6" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O6" t="n">
-        <v>277.816905905207</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P6" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q6" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8537,13 +8537,13 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L9" t="n">
-        <v>327.5816281580458</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>138.5806830739679</v>
+        <v>354.7721594580186</v>
       </c>
       <c r="N9" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O9" t="n">
         <v>409.6168120477987</v>
@@ -9254,10 +9254,10 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O18" t="n">
-        <v>223.5744393700659</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
         <v>331.2012793855346</v>
@@ -9482,7 +9482,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>275.0438464930818</v>
+        <v>89.00147381534887</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
@@ -9497,7 +9497,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>145.1589067078019</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
         <v>218.4803792452831</v>
@@ -9953,7 +9953,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K27" t="n">
         <v>275.0438464930818</v>
@@ -9965,7 +9965,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N27" t="n">
-        <v>312.4736966395628</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
@@ -9974,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>218.4803792452831</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10427,7 +10427,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>112.1249761973247</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K33" t="n">
         <v>275.0438464930818</v>
@@ -10448,7 +10448,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>51.44770712425047</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10667,13 +10667,13 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
-        <v>89.00147381534887</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
-        <v>484.3332662999999</v>
+        <v>298.290893622267</v>
       </c>
       <c r="N36" t="n">
         <v>498.5160693172957</v>
@@ -10901,7 +10901,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>112.1249761973247</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
@@ -10913,7 +10913,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -10922,7 +10922,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11077,7 +11077,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P41" t="n">
-        <v>334.6706564983421</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q41" t="n">
         <v>220.8075902863009</v>
@@ -11147,10 +11147,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>298.290893622267</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>333.9340427962902</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>297.3006126791239</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3781599023558</v>
@@ -23323,10 +23323,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>91.92161561464282</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23460,28 +23460,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U13" t="n">
-        <v>283.3250655463385</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>226.1403599323093</v>
+        <v>175.7123868802086</v>
       </c>
       <c r="Y13" t="n">
         <v>218.7486738677682</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>333.9340427962902</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.0062292695569</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>177.493467653868</v>
       </c>
       <c r="T14" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.6870717512358</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H15" t="n">
-        <v>81.6885157785874</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.899293949320331</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23661,22 +23661,22 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>33.93376427960212</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>41.35129940796072</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S16" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>225.9462130081922</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>333.9340427962902</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>177.493467653868</v>
       </c>
       <c r="T17" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3781599023558</v>
@@ -23794,13 +23794,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.6870717512358</v>
+        <v>222.9519406668992</v>
       </c>
     </row>
     <row r="18">
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>41.22751706926219</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>104.0288287853823</v>
+        <v>28.3537855385853</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E19" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.3311041893321</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R19" t="n">
         <v>148.2796428708918</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T19" t="n">
-        <v>225.9462130081922</v>
+        <v>182.6300779520732</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V19" t="n">
-        <v>162.0355607341936</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>226.1403599323093</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.6097194764729</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I20" t="n">
         <v>157.2246747536534</v>
@@ -24019,22 +24019,22 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S20" t="n">
-        <v>177.493467653868</v>
+        <v>87.66216398314815</v>
       </c>
       <c r="T20" t="n">
-        <v>137.8717045415878</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24059,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>41.22751706926219</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.750113771095215</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3311041893321</v>
+        <v>110.9576649524484</v>
       </c>
       <c r="H22" t="n">
-        <v>108.6839047706372</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I22" t="n">
         <v>136.9633875020681</v>
@@ -24171,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S22" t="n">
         <v>212.6245410698995</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U22" t="n">
         <v>286.0218075870219</v>
@@ -24195,7 +24195,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>366.9850956789426</v>
+        <v>162.0689496731303</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H23" t="n">
-        <v>8.908148634942393</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I23" t="n">
         <v>157.2246747536534</v>
@@ -24259,7 +24259,7 @@
         <v>177.493467653868</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U23" t="n">
         <v>251.3781599023558</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24302,7 +24302,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I24" t="n">
         <v>63.56783007605712</v>
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>81.68851577858754</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
         <v>146.1590214098045</v>
@@ -24381,13 +24381,13 @@
         <v>167.3311041893321</v>
       </c>
       <c r="H25" t="n">
-        <v>153.5108397410802</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24414,19 +24414,19 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S25" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.9462130081922</v>
+        <v>102.0502041385755</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T26" t="n">
-        <v>32.25458532685079</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>187.5640120877676</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -24539,10 +24539,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24587,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>167.3311041893321</v>
       </c>
       <c r="H28" t="n">
-        <v>156.6686349500177</v>
+        <v>106.2406618979171</v>
       </c>
       <c r="I28" t="n">
         <v>136.9633875020681</v>
@@ -24651,7 +24651,7 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S28" t="n">
-        <v>129.0403421973224</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T28" t="n">
         <v>225.9462130081922</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>226.1403599323093</v>
@@ -24685,7 +24685,7 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I29" t="n">
         <v>157.2246747536534</v>
@@ -24730,25 +24730,25 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S29" t="n">
-        <v>141.653066191054</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U29" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>213.8083552294222</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24761,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>91.92161561464266</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.6686349500177</v>
+        <v>73.5626160308084</v>
       </c>
       <c r="I31" t="n">
         <v>136.9633875020681</v>
@@ -24888,10 +24888,10 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S31" t="n">
-        <v>71.7244648370949</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T31" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.0218075870219</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>305.5215729279741</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V32" t="n">
         <v>328.5332215225193</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>311.0867021705788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25010,10 +25010,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
         <v>81.6885157785874</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>63.56783007605712</v>
@@ -25083,16 +25083,16 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
         <v>167.3311041893321</v>
       </c>
       <c r="H34" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>136.9633875020681</v>
@@ -25119,22 +25119,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R34" t="n">
-        <v>70.61482333199667</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S34" t="n">
         <v>212.6245410698995</v>
       </c>
       <c r="T34" t="n">
-        <v>225.9462130081922</v>
+        <v>13.00884149861099</v>
       </c>
       <c r="U34" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V34" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.0925768874155</v>
@@ -25143,7 +25143,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="35">
@@ -25156,13 +25156,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>298.1363434267444</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>407.2938634805408</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,16 +25210,16 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>169.648804058319</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25253,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25289,13 +25289,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>28.35378553858533</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
-        <v>156.8201864699567</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
         <v>149.0055665145194</v>
@@ -25326,10 +25326,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H37" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>136.9633875020681</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0218075870219</v>
+        <v>46.09429801869376</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
@@ -25380,7 +25380,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.0113950710531</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>370.8615991311694</v>
+        <v>241.8798664615014</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25472,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>91.92161561464266</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>156.6686349500177</v>
       </c>
       <c r="I40" t="n">
-        <v>136.9633875020681</v>
+        <v>26.65396679525475</v>
       </c>
       <c r="J40" t="n">
         <v>49.35397375491781</v>
@@ -25599,22 +25599,22 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T40" t="n">
-        <v>68.96474761849271</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U40" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.7486738677682</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>45.74204164772829</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>252.2602293858453</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I41" t="n">
         <v>157.2246747536534</v>
@@ -25684,13 +25684,13 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>81.68851577858749</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I42" t="n">
         <v>63.56783007605712</v>
@@ -25794,22 +25794,22 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
-        <v>140.2127170676547</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H43" t="n">
-        <v>156.6686349500177</v>
+        <v>46.09429801869378</v>
       </c>
       <c r="I43" t="n">
         <v>136.9633875020681</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T43" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
         <v>286.0925768874155</v>
@@ -25876,13 +25876,13 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.6097194764729</v>
+        <v>225.7469263851563</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I44" t="n">
         <v>157.2246747536534</v>
@@ -25915,10 +25915,10 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S44" t="n">
-        <v>104.9133343854042</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U44" t="n">
         <v>251.3781599023558</v>
@@ -25927,10 +25927,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25961,10 +25961,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26006,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>145.2563458546444</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
-        <v>109.1620421345572</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.6686349500177</v>
@@ -26076,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U46" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V46" t="n">
-        <v>252.9363510669392</v>
+        <v>10.3496387996326</v>
       </c>
       <c r="W46" t="n">
         <v>286.0925768874155</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>658445.6717706082</v>
+        <v>658445.6717706084</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>658445.6717706082</v>
+        <v>658445.6717706083</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>658445.6717706082</v>
+        <v>658445.6717706084</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>658445.6717706085</v>
+        <v>658445.6717706084</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>658445.6717706084</v>
+        <v>658445.6717706082</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>658445.6717706083</v>
+        <v>658445.6717706084</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>658445.6717706084</v>
+        <v>658445.6717706083</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>658445.6717706084</v>
+        <v>658445.6717706085</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>529047.6155997089</v>
+        <v>529047.6155997087</v>
       </c>
       <c r="C2" t="n">
+        <v>529047.615599709</v>
+      </c>
+      <c r="D2" t="n">
         <v>529047.6155997087</v>
-      </c>
-      <c r="D2" t="n">
-        <v>529047.6155997089</v>
       </c>
       <c r="E2" t="n">
         <v>356652.3701426029</v>
@@ -26328,7 +26328,7 @@
         <v>356652.3701426029</v>
       </c>
       <c r="G2" t="n">
-        <v>356652.3701426028</v>
+        <v>356652.3701426029</v>
       </c>
       <c r="H2" t="n">
         <v>356652.3701426028</v>
@@ -26337,25 +26337,25 @@
         <v>356652.3701426029</v>
       </c>
       <c r="J2" t="n">
-        <v>356652.3701426027</v>
+        <v>356652.3701426028</v>
       </c>
       <c r="K2" t="n">
+        <v>356652.3701426029</v>
+      </c>
+      <c r="L2" t="n">
         <v>356652.3701426028</v>
       </c>
-      <c r="L2" t="n">
-        <v>356652.3701426027</v>
-      </c>
       <c r="M2" t="n">
-        <v>356652.3701426027</v>
+        <v>356652.3701426028</v>
       </c>
       <c r="N2" t="n">
-        <v>356652.3701426027</v>
+        <v>356652.3701426029</v>
       </c>
       <c r="O2" t="n">
+        <v>356652.3701426029</v>
+      </c>
+      <c r="P2" t="n">
         <v>356652.3701426028</v>
-      </c>
-      <c r="P2" t="n">
-        <v>356652.3701426029</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>71764.71248808615</v>
+        <v>71764.71248808624</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>89616.02429853742</v>
+        <v>89616.02429853739</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>319437.8415733089</v>
       </c>
       <c r="C4" t="n">
+        <v>319437.841573309</v>
+      </c>
+      <c r="D4" t="n">
         <v>319437.8415733089</v>
-      </c>
-      <c r="D4" t="n">
-        <v>319437.841573309</v>
       </c>
       <c r="E4" t="n">
         <v>55362.31150515038</v>
@@ -26435,28 +26435,28 @@
         <v>55362.31150515039</v>
       </c>
       <c r="H4" t="n">
+        <v>55362.3115051504</v>
+      </c>
+      <c r="I4" t="n">
         <v>55362.31150515039</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>55362.31150515038</v>
       </c>
-      <c r="J4" t="n">
-        <v>55362.3115051504</v>
-      </c>
       <c r="K4" t="n">
-        <v>55362.3115051504</v>
+        <v>55362.31150515039</v>
       </c>
       <c r="L4" t="n">
         <v>55362.31150515038</v>
       </c>
       <c r="M4" t="n">
-        <v>55362.31150515038</v>
+        <v>55362.31150515039</v>
       </c>
       <c r="N4" t="n">
-        <v>55362.31150515038</v>
+        <v>55362.3115051504</v>
       </c>
       <c r="O4" t="n">
-        <v>55362.3115051504</v>
+        <v>55362.31150515039</v>
       </c>
       <c r="P4" t="n">
         <v>55362.31150515038</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67386.90617229068</v>
+        <v>67386.90617229055</v>
       </c>
       <c r="C6" t="n">
+        <v>159305.7185400306</v>
+      </c>
+      <c r="D6" t="n">
         <v>159305.7185400304</v>
       </c>
-      <c r="D6" t="n">
-        <v>159305.7185400305</v>
-      </c>
       <c r="E6" t="n">
-        <v>-100191.6323649025</v>
+        <v>-106822.2187286374</v>
       </c>
       <c r="F6" t="n">
-        <v>255997.7975217777</v>
+        <v>249367.2111580429</v>
       </c>
       <c r="G6" t="n">
-        <v>255997.7975217776</v>
+        <v>249367.2111580429</v>
       </c>
       <c r="H6" t="n">
-        <v>255997.7975217776</v>
+        <v>249367.2111580428</v>
       </c>
       <c r="I6" t="n">
-        <v>255997.7975217777</v>
+        <v>249367.2111580429</v>
       </c>
       <c r="J6" t="n">
-        <v>184233.0850336914</v>
+        <v>177602.4986699565</v>
       </c>
       <c r="K6" t="n">
-        <v>255997.7975217776</v>
+        <v>249367.2111580428</v>
       </c>
       <c r="L6" t="n">
-        <v>255997.7975217775</v>
+        <v>249367.2111580427</v>
       </c>
       <c r="M6" t="n">
-        <v>166381.77322324</v>
+        <v>159751.1868595053</v>
       </c>
       <c r="N6" t="n">
-        <v>255997.7975217775</v>
+        <v>249367.2111580429</v>
       </c>
       <c r="O6" t="n">
-        <v>255997.7975217776</v>
+        <v>249367.2111580429</v>
       </c>
       <c r="P6" t="n">
-        <v>255997.7975217777</v>
+        <v>249367.2111580428</v>
       </c>
     </row>
   </sheetData>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>274.2838073416021</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.6090925448124</v>
+        <v>359.6090925448123</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,25 +27384,25 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D2" t="n">
-        <v>115.015555248115</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E2" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>133.0100561389384</v>
+        <v>312.3183024703347</v>
       </c>
       <c r="G2" t="n">
-        <v>140.5709580622284</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I2" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W2" t="n">
         <v>350.5301170005546</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>86.50354346547167</v>
+        <v>27.77480816060665</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>168.9616139056444</v>
@@ -27514,19 +27514,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>167.766076517585</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C4" t="n">
-        <v>167.3365529312023</v>
+        <v>3.197836007427355</v>
       </c>
       <c r="D4" t="n">
         <v>149.0055665145194</v>
@@ -27548,10 +27548,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F4" t="n">
-        <v>135.1354836983042</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H4" t="n">
         <v>161.6340720089168</v>
@@ -27563,7 +27563,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27636,10 +27636,10 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I5" t="n">
-        <v>205.224307868124</v>
+        <v>59.87500346338865</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>222.9651171964204</v>
@@ -27681,10 +27681,10 @@
         <v>76.2463096589521</v>
       </c>
       <c r="X5" t="n">
-        <v>151.4210505090578</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y5" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>46.12287678758256</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>207.1639268453481</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27797,10 +27797,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.76069987584818</v>
+        <v>4.460827879852118</v>
       </c>
       <c r="R7" t="n">
         <v>173.3911476697823</v>
@@ -27839,7 +27839,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X7" t="n">
-        <v>47.22723329070089</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y7" t="n">
         <v>218.7486738677682</v>
@@ -27855,28 +27855,28 @@
         <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
-        <v>132.6897816530001</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D8" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>140.5709580622284</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W8" t="n">
-        <v>350.5301170005546</v>
+        <v>182.3747688307611</v>
       </c>
       <c r="X8" t="n">
         <v>370.8615991311694</v>
@@ -27946,13 +27946,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>187.1537033432166</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>144.942416113721</v>
       </c>
     </row>
     <row r="10">
@@ -28022,10 +28022,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F10" t="n">
-        <v>135.1354836983042</v>
+        <v>70.85914941380844</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H10" t="n">
         <v>161.6340720089168</v>
@@ -28034,10 +28034,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L3" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5579630241179461</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="N3" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>270.5854737144654</v>
@@ -34950,7 +34950,7 @@
         <v>231.1630643817873</v>
       </c>
       <c r="O5" t="n">
-        <v>171.6864323771105</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P5" t="n">
         <v>109.2184856369541</v>
@@ -35023,19 +35023,19 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
-        <v>274.2838073416025</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="N6" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>138.7855675718737</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L9" t="n">
-        <v>192.4911078726684</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>216.1914763840507</v>
       </c>
       <c r="N9" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>270.5854737144654</v>
@@ -35974,10 +35974,10 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N18" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O18" t="n">
-        <v>243.0391066718371</v>
+        <v>429.0814793495699</v>
       </c>
       <c r="P18" t="n">
         <v>327.7832499334201</v>
@@ -36202,7 +36202,7 @@
         <v>70.40534134273582</v>
       </c>
       <c r="K21" t="n">
-        <v>248.2184001629003</v>
+        <v>62.17602748516736</v>
       </c>
       <c r="L21" t="n">
         <v>395.2245205299612</v>
@@ -36217,7 +36217,7 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P21" t="n">
-        <v>141.7408772556873</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q21" t="n">
         <v>167.0326721210326</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>248.2184001629003</v>
@@ -36685,7 +36685,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N27" t="n">
-        <v>357.6721984766432</v>
+        <v>543.714571154376</v>
       </c>
       <c r="O27" t="n">
         <v>429.0814793495699</v>
@@ -36694,7 +36694,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q27" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>51.3956407860353</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>248.2184001629003</v>
@@ -37168,7 +37168,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>70.40534134273582</v>
       </c>
       <c r="K36" t="n">
-        <v>62.17602748516736</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L36" t="n">
         <v>395.2245205299612</v>
       </c>
       <c r="M36" t="n">
-        <v>514.5419032905515</v>
+        <v>328.4995306128187</v>
       </c>
       <c r="N36" t="n">
         <v>543.714571154376</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>51.3956407860353</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K39" t="n">
         <v>248.2184001629003</v>
@@ -37633,7 +37633,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N39" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O39" t="n">
         <v>429.0814793495699</v>
@@ -37642,7 +37642,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>381.4626643702566</v>
       </c>
       <c r="P41" t="n">
-        <v>288.2576462984488</v>
+        <v>288.2576462984487</v>
       </c>
       <c r="Q41" t="n">
         <v>138.5104960466975</v>
@@ -37867,10 +37867,10 @@
         <v>395.2245205299612</v>
       </c>
       <c r="M42" t="n">
-        <v>328.4995306128187</v>
+        <v>514.5419032905515</v>
       </c>
       <c r="N42" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O42" t="n">
         <v>429.0814793495699</v>
@@ -38037,7 +38037,7 @@
         <v>288.2576462984487</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.5104960466976</v>
+        <v>138.5104960466975</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
